--- a/Snapdeal Project on Phone Brand.xlsx
+++ b/Snapdeal Project on Phone Brand.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1266,7 +1266,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.2529096675415573"/>
-          <c:y val="2.1929824561403525E-2"/>
+          <c:y val="2.1929824561403532E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -1278,7 +1278,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:numFmt formatCode="[&gt;999999]#,,&quot;M&quot;;#,&quot;0M&quot;" sourceLinked="0"/>
           <c:spPr/>
           <c:txPr>
@@ -1301,7 +1300,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="2.5462668816040164E-17"/>
+              <c:x val="2.5462668816040189E-17"/>
               <c:y val="8.771929824561403E-3"/>
             </c:manualLayout>
           </c:layout>
@@ -1337,9 +1336,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19861351706036748"/>
-          <c:y val="0.17139280287332531"/>
-          <c:w val="0.77083092738407877"/>
-          <c:h val="0.63449889487498357"/>
+          <c:y val="0.17139280287332534"/>
+          <c:w val="0.77083092738407899"/>
+          <c:h val="0.63449889487498379"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1364,7 +1363,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5462668816040164E-17"/>
+                  <c:x val="2.5462668816040189E-17"/>
                   <c:y val="8.771929824561403E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -1448,11 +1447,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="61344000"/>
-        <c:axId val="64209664"/>
+        <c:axId val="135275648"/>
+        <c:axId val="135277568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61344000"/>
+        <c:axId val="135275648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1476,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45211286089238889"/>
+              <c:x val="0.45211286089238895"/>
               <c:y val="0.90471232214394248"/>
             </c:manualLayout>
           </c:layout>
@@ -1497,14 +1496,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64209664"/>
+        <c:crossAx val="135277568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64209664"/>
+        <c:axId val="135277568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,8 +1529,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6666666666666694E-2"/>
-              <c:y val="0.13630508357507967"/>
+              <c:x val="1.6666666666666698E-2"/>
+              <c:y val="0.13630508357507973"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -1547,7 +1546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61344000"/>
+        <c:crossAx val="135275648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1655,7 +1654,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1695,8 +1694,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19057810081432131"/>
-          <c:y val="3.1091069105976003E-3"/>
+          <c:x val="0.19057810081432133"/>
+          <c:y val="3.1091069105976012E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2015,8 +2014,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.19904392960495318"/>
           <c:y val="0.12678612023890715"/>
-          <c:w val="0.76462455414227148"/>
-          <c:h val="0.70745517046589734"/>
+          <c:w val="0.76462455414227171"/>
+          <c:h val="0.70745517046589745"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2114,11 +2113,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="126875520"/>
-        <c:axId val="126926848"/>
+        <c:axId val="136809856"/>
+        <c:axId val="136832512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126875520"/>
+        <c:axId val="136809856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,8 +2142,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.5037687596742735E-4"/>
-              <c:y val="0.15348061091770063"/>
+              <c:x val="3.5037687596742745E-4"/>
+              <c:y val="0.15348061091770066"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -2160,14 +2159,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126926848"/>
+        <c:crossAx val="136832512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126926848"/>
+        <c:axId val="136832512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2196,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42208257621643486"/>
+              <c:x val="0.42208257621643491"/>
               <c:y val="0.91577248710052972"/>
             </c:manualLayout>
           </c:layout>
@@ -2215,7 +2214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126875520"/>
+        <c:crossAx val="136809856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2282,7 +2281,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2332,8 +2331,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17122573815487205"/>
-          <c:y val="1.5628796400449941E-2"/>
+          <c:x val="0.17122573815487208"/>
+          <c:y val="1.5628796400449937E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3387,8 +3386,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="1.3888888888888897E-2"/>
-              <c:y val="2.8571428571428581E-2"/>
+              <c:x val="1.38888888888889E-2"/>
+              <c:y val="2.8571428571428584E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:dLblPos val="bestFit"/>
@@ -3401,7 +3400,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-2.2222222222222233E-2"/>
+              <c:x val="-2.222222222222224E-2"/>
               <c:y val="2.3809523809523812E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -3415,7 +3414,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-2.7777777777777809E-3"/>
+              <c:x val="-2.7777777777777822E-3"/>
               <c:y val="-4.7619047619047623E-3"/>
             </c:manualLayout>
           </c:layout>
@@ -3430,7 +3429,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="-0.11446052351564162"/>
-              <c:y val="-0.25714285714285712"/>
+              <c:y val="-0.25714285714285717"/>
             </c:manualLayout>
           </c:layout>
           <c:dLblPos val="bestFit"/>
@@ -3461,7 +3460,7 @@
           <c:x val="0.26469979973916985"/>
           <c:y val="0.21485826771653543"/>
           <c:w val="0.49652799650043788"/>
-          <c:h val="0.76388922538528981"/>
+          <c:h val="0.76388922538528992"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -3486,7 +3485,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.11446052351564162"/>
-                  <c:y val="-0.25714285714285712"/>
+                  <c:y val="-0.25714285714285717"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -3507,7 +3506,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7777777777777809E-3"/>
+                  <c:x val="-2.7777777777777822E-3"/>
                   <c:y val="-4.7619047619047623E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -3518,7 +3517,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2222222222222233E-2"/>
+                  <c:x val="-2.222222222222224E-2"/>
                   <c:y val="2.3809523809523812E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -3529,8 +3528,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3888888888888897E-2"/>
-                  <c:y val="2.8571428571428581E-2"/>
+                  <c:x val="1.38888888888889E-2"/>
+                  <c:y val="2.8571428571428584E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -3675,7 +3674,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3711,7 +3710,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.22466104166357737"/>
-          <c:y val="1.7194956454306843E-2"/>
+          <c:y val="1.7194956454306839E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -3745,7 +3744,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="2.5462668816040214E-17"/>
+              <c:x val="2.5462668816040235E-17"/>
               <c:y val="8.771929824561403E-3"/>
             </c:manualLayout>
           </c:layout>
@@ -3802,7 +3801,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="2.5462668816040214E-17"/>
+              <c:x val="2.5462668816040235E-17"/>
               <c:y val="8.771929824561403E-3"/>
             </c:manualLayout>
           </c:layout>
@@ -3854,7 +3853,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="2.5462668816040214E-17"/>
+              <c:x val="2.5462668816040235E-17"/>
               <c:y val="8.771929824561403E-3"/>
             </c:manualLayout>
           </c:layout>
@@ -3884,9 +3883,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19861351706036748"/>
-          <c:y val="0.17139280287332537"/>
-          <c:w val="0.77083092738407921"/>
-          <c:h val="0.6344988948749839"/>
+          <c:y val="0.17139280287332542"/>
+          <c:w val="0.77083092738407943"/>
+          <c:h val="0.63449889487498401"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3911,7 +3910,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5462668816040214E-17"/>
+                  <c:x val="2.5462668816040235E-17"/>
                   <c:y val="8.771929824561403E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -3995,11 +3994,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="132916736"/>
-        <c:axId val="132918656"/>
+        <c:axId val="137137152"/>
+        <c:axId val="137155712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132916736"/>
+        <c:axId val="137137152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4023,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.452112860892389"/>
+              <c:x val="0.45211286089238906"/>
               <c:y val="0.90471232214394248"/>
             </c:manualLayout>
           </c:layout>
@@ -4040,14 +4039,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132918656"/>
+        <c:crossAx val="137155712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132918656"/>
+        <c:axId val="137155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,8 +4072,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="4.5233758348512476E-3"/>
-              <c:y val="0.13630510319732772"/>
+              <c:x val="4.5234811750226138E-3"/>
+              <c:y val="0.1078960122882367"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4090,7 +4089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132916736"/>
+        <c:crossAx val="137137152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4198,7 +4197,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4717,9 +4716,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.26284711286089241"/>
-          <c:y val="0.16933743858940747"/>
-          <c:w val="0.49652799650043783"/>
-          <c:h val="0.76388922538528936"/>
+          <c:y val="0.16933743858940753"/>
+          <c:w val="0.49652799650043788"/>
+          <c:h val="0.76388922538528958"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -4798,7 +4797,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4862,7 +4860,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4897,7 +4895,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18790716064338131"/>
+          <c:x val="0.18790716064338134"/>
           <c:y val="8.7489063867016627E-3"/>
         </c:manualLayout>
       </c:layout>
@@ -5151,7 +5149,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -5175,8 +5172,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.19904392960495318"/>
           <c:y val="0.12678612023890715"/>
-          <c:w val="0.76462455414227115"/>
-          <c:h val="0.70745517046589712"/>
+          <c:w val="0.76462455414227126"/>
+          <c:h val="0.70745517046589723"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5274,11 +5271,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="113579136"/>
-        <c:axId val="113581056"/>
+        <c:axId val="135928448"/>
+        <c:axId val="135951104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113579136"/>
+        <c:axId val="135928448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5310,14 +5307,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113581056"/>
+        <c:crossAx val="135951104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113581056"/>
+        <c:axId val="135951104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5342,7 +5339,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42208257621643464"/>
+              <c:x val="0.42208257621643475"/>
               <c:y val="0.91577248710052972"/>
             </c:manualLayout>
           </c:layout>
@@ -5350,7 +5347,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113579136"/>
+        <c:crossAx val="135928448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5417,7 +5414,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5452,7 +5449,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.21365395872278553"/>
-          <c:y val="2.7777777777777832E-2"/>
+          <c:y val="2.7777777777777842E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5529,7 +5526,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="0"/>
-              <c:y val="-4.6296296296296337E-3"/>
+              <c:y val="-4.6296296296296346E-3"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -5609,7 +5606,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -5632,8 +5628,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21387889688249428"/>
-          <c:y val="0.1537962962962966"/>
+          <c:x val="0.21387889688249434"/>
+          <c:y val="0.15379629629629668"/>
           <c:w val="0.53225419664268581"/>
           <c:h val="0.82203703703703701"/>
         </c:manualLayout>
@@ -5791,7 +5787,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5825,8 +5821,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20170999353724026"/>
-          <c:y val="1.7361111111111126E-2"/>
+          <c:x val="0.20170999353724031"/>
+          <c:y val="1.7361111111111129E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -5859,7 +5855,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="2.7777777777777853E-2"/>
+              <c:x val="2.7777777777777863E-2"/>
               <c:y val="4.1666666666666664E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -5874,7 +5870,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="-0.05"/>
-              <c:y val="-3.7037401574803237E-2"/>
+              <c:y val="-3.7037401574803251E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -5888,7 +5884,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="-3.3333333333333444E-2"/>
-              <c:y val="6.4814814814814992E-2"/>
+              <c:y val="6.4814814814815006E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -5901,8 +5897,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-5.8333333333333445E-2"/>
-              <c:y val="-6.4814814814814922E-2"/>
+              <c:x val="-5.8333333333333473E-2"/>
+              <c:y val="-6.4814814814814936E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -6048,7 +6044,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -6070,7 +6065,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-1.1515523316434776E-2"/>
+              <c:x val="-1.1515523316434781E-2"/>
               <c:y val="-5.7771250815870173E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -6086,9 +6081,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12782481963623887"/>
-          <c:y val="0.12841446576990387"/>
+          <c:y val="0.12841446576990392"/>
           <c:w val="0.8550517240621307"/>
-          <c:h val="0.62261523950131303"/>
+          <c:h val="0.62261523950131314"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6115,7 +6110,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.1515523316434776E-2"/>
+                  <c:x val="-1.1515523316434781E-2"/>
                   <c:y val="-5.7771250815870173E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -6230,11 +6225,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="133105152"/>
-        <c:axId val="132920832"/>
+        <c:axId val="136358528"/>
+        <c:axId val="136356608"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="132920832"/>
+        <c:axId val="136356608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,12 +6273,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133105152"/>
+        <c:crossAx val="136358528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="133105152"/>
+        <c:axId val="136358528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6308,8 +6303,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42452991114804162"/>
-              <c:y val="0.91832383256780459"/>
+              <c:x val="0.42452991114804173"/>
+              <c:y val="0.91832383256780481"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -6325,7 +6320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132920832"/>
+        <c:crossAx val="136356608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6435,7 +6430,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6470,7 +6465,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.23582151389730141"/>
-          <c:y val="9.2592592592592778E-3"/>
+          <c:y val="9.2592592592592813E-3"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -6593,7 +6588,7 @@
           <c:x val="0.17165017834309168"/>
           <c:y val="0.16496536891221941"/>
           <c:w val="0.81499512080220737"/>
-          <c:h val="0.58171296296296171"/>
+          <c:h val="0.58171296296296138"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -7306,11 +7301,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="135679360"/>
-        <c:axId val="135730304"/>
+        <c:axId val="136454144"/>
+        <c:axId val="136455680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135679360"/>
+        <c:axId val="136454144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,14 +7322,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135730304"/>
+        <c:crossAx val="136455680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135730304"/>
+        <c:axId val="136455680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7380,7 +7375,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.0431640756443954E-3"/>
+              <c:x val="2.0431640756443962E-3"/>
               <c:y val="5.8483887430737833E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -7388,7 +7383,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135679360"/>
+        <c:crossAx val="136454144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7404,7 +7399,7 @@
           <c:yMode val="edge"/>
           <c:x val="4.0348652331920073E-2"/>
           <c:y val="0.85802857976086322"/>
-          <c:w val="0.9486830372165026"/>
+          <c:w val="0.94868303721650271"/>
           <c:h val="0.12345290172061826"/>
         </c:manualLayout>
       </c:layout>
@@ -7481,7 +7476,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7523,8 +7518,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18624072714383372"/>
-          <c:y val="9.5812003091450323E-3"/>
+          <c:x val="0.18624072714383375"/>
+          <c:y val="9.581200309145034E-3"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -7791,7 +7786,7 @@
           <c:x val="0.17165017834309168"/>
           <c:y val="0.16496536891221941"/>
           <c:w val="0.81499512080220737"/>
-          <c:h val="0.58171296296296116"/>
+          <c:h val="0.58171296296296093"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8504,11 +8499,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="138836608"/>
-        <c:axId val="138840320"/>
+        <c:axId val="136691072"/>
+        <c:axId val="136701056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138836608"/>
+        <c:axId val="136691072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8525,14 +8520,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138840320"/>
+        <c:crossAx val="136701056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138840320"/>
+        <c:axId val="136701056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8575,7 +8570,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.0431931539104248E-3"/>
+              <c:x val="2.0431931539104256E-3"/>
               <c:y val="0.10466867469879518"/>
             </c:manualLayout>
           </c:layout>
@@ -8593,7 +8588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138836608"/>
+        <c:crossAx val="136691072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8609,7 +8604,7 @@
           <c:yMode val="edge"/>
           <c:x val="4.0348652331920073E-2"/>
           <c:y val="0.85802857976086322"/>
-          <c:w val="0.94868303721650282"/>
+          <c:w val="0.94868303721650293"/>
           <c:h val="0.12345290172061826"/>
         </c:manualLayout>
       </c:layout>
@@ -8686,7 +8681,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8725,7 +8720,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21863768115942037"/>
+          <c:x val="0.21863768115942045"/>
           <c:y val="1.8779342723004692E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -8745,7 +8740,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="2.7777777777777877E-2"/>
+              <c:x val="2.7777777777777891E-2"/>
               <c:y val="4.1666666666666664E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -8760,7 +8755,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="-0.05"/>
-              <c:y val="-3.7037401574803258E-2"/>
+              <c:y val="-3.7037401574803265E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -8774,7 +8769,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="-3.3333333333333444E-2"/>
-              <c:y val="6.4814814814815033E-2"/>
+              <c:y val="6.4814814814815047E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -8787,8 +8782,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-5.8333333333333487E-2"/>
-              <c:y val="-6.481481481481495E-2"/>
+              <c:x val="-5.8333333333333508E-2"/>
+              <c:y val="-6.4814814814814964E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -8857,7 +8852,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-1.1515523316434783E-2"/>
+              <c:x val="-1.1515523316434784E-2"/>
               <c:y val="-5.7771250815870173E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -8879,7 +8874,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-1.1515523316434783E-2"/>
+              <c:x val="-1.1515523316434784E-2"/>
               <c:y val="-5.7771250815870173E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -8944,7 +8939,7 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-2.0594317014720993E-2"/>
+              <c:x val="-2.0594317014721003E-2"/>
               <c:y val="-2.3955491479058077E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -8960,7 +8955,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15068355585986534"/>
-          <c:y val="0.16937821152637614"/>
+          <c:y val="0.16937821152637617"/>
           <c:w val="0.81743238616912017"/>
           <c:h val="0.56045950242135223"/>
         </c:manualLayout>
@@ -8997,7 +8992,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0594317014720993E-2"/>
+                  <c:x val="-2.0594317014721003E-2"/>
                   <c:y val="-2.3955491479058077E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -9123,11 +9118,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="146376576"/>
-        <c:axId val="146374656"/>
+        <c:axId val="136638464"/>
+        <c:axId val="136611712"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="146374656"/>
+        <c:axId val="136611712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9159,19 +9154,19 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.0912929362090609E-2"/>
-              <c:y val="0.12712469039961555"/>
+              <c:y val="0.12712469039961552"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146376576"/>
+        <c:crossAx val="136638464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="146376576"/>
+        <c:axId val="136638464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9201,14 +9196,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4432548214081935"/>
+              <c:x val="0.44325482140819344"/>
               <c:y val="0.90140845070422537"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146374656"/>
+        <c:crossAx val="136611712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9289,7 +9284,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9323,8 +9318,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14470911459808536"/>
-          <c:y val="1.7707416482305269E-2"/>
+          <c:x val="0.23763477407050734"/>
+          <c:y val="2.6016763010363883E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -9401,7 +9396,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="0"/>
-              <c:y val="-4.6296296296296372E-3"/>
+              <c:y val="-4.6296296296296389E-3"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -9440,7 +9435,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="0"/>
-              <c:y val="-4.6296296296296372E-3"/>
+              <c:y val="-4.6296296296296389E-3"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -9493,7 +9488,7 @@
           <c:layout>
             <c:manualLayout>
               <c:x val="0"/>
-              <c:y val="-4.6296296296296372E-3"/>
+              <c:y val="-4.6296296296296389E-3"/>
             </c:manualLayout>
           </c:layout>
           <c:showVal val="1"/>
@@ -9603,6 +9598,76 @@
           <c:showCatName val="1"/>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.14988009592326137"/>
+              <c:y val="-1.0070493454179255E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.15287769784172661"/>
+              <c:y val="2.5175837159327894E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.15587529976019185"/>
+              <c:y val="9.0634441087613205E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="0.1288968824940048"/>
+              <c:y val="-0.10070493454179257"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.13489208633093525"/>
+              <c:y val="-0.1107754279959718"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -9633,6 +9698,61 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1288968824940048"/>
+                  <c:y val="-0.10070493454179257"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15587529976019185"/>
+                  <c:y val="9.0634441087613205E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15287769784172661"/>
+                  <c:y val="2.5175837159327894E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14988009592326137"/>
+                  <c:y val="-1.0070493454179255E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13489208633093525"/>
+                  <c:y val="-0.1107754279959718"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -9773,7 +9893,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9995,14 +10115,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10021,7 +10141,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="1066800"/>
+          <a:off x="30480" y="1097280"/>
           <a:ext cx="14630400" cy="9144000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10035,14 +10155,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>46471</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>137360</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10061,8 +10181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5455920" y="198120"/>
-          <a:ext cx="2515351" cy="670760"/>
+          <a:off x="5455920" y="167640"/>
+          <a:ext cx="2515351" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10130,15 +10250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10160,15 +10280,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10197,8 +10317,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10250,15 +10370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10280,15 +10400,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10305,7 +10425,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4290060" y="30480"/>
+          <a:off x="4297680" y="38100"/>
           <a:ext cx="1066800" cy="1021080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -10324,43 +10444,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="asdfasd.jpg"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="cart.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8061960" y="22860"/>
-          <a:ext cx="1043940" cy="1021080"/>
+          <a:off x="8023860" y="15240"/>
+          <a:ext cx="1104900" cy="1043940"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:softEdge rad="112500"/>
-        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -18778,7 +18892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -18980,7 +19094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -19291,7 +19405,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0">
@@ -19748,7 +19862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -20156,7 +20270,7 @@
   <dataFields count="1">
     <dataField name="Sum of ratings" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="7">
     <chartFormat chart="2" format="24" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -20175,13 +20289,73 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0">
@@ -20491,7 +20665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:N10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -44372,7 +44546,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
